--- a/optical_test_results.xlsx
+++ b/optical_test_results.xlsx
@@ -20,9 +20,9 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00&quot;x&quot;"/>
     <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3">
@@ -42,7 +42,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -56,32 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E7E6E6"/>
+        <fgColor rgb="00E3F2FD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FBE5D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C6E0B4"/>
+        <fgColor rgb="00E8F5E9"/>
       </patternFill>
     </fill>
   </fills>
@@ -111,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -120,18 +100,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -497,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -523,27 +508,27 @@
     <col width="24" customWidth="1" min="13" max="13"/>
     <col width="25" customWidth="1" min="14" max="14"/>
     <col width="25" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
-    <col width="23" customWidth="1" min="19" max="19"/>
-    <col width="23" customWidth="1" min="20" max="20"/>
+    <col width="19" customWidth="1" min="16" max="16"/>
+    <col width="22" customWidth="1" min="17" max="17"/>
+    <col width="18" customWidth="1" min="18" max="18"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
     <col width="26" customWidth="1" min="21" max="21"/>
     <col width="32" customWidth="1" min="22" max="22"/>
     <col width="28" customWidth="1" min="23" max="23"/>
     <col width="29" customWidth="1" min="24" max="24"/>
     <col width="29" customWidth="1" min="25" max="25"/>
     <col width="21" customWidth="1" min="26" max="26"/>
-    <col width="21" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="22" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
     <col width="27" customWidth="1" min="29" max="29"/>
     <col width="26" customWidth="1" min="30" max="30"/>
     <col width="24" customWidth="1" min="31" max="31"/>
     <col width="25" customWidth="1" min="32" max="32"/>
-    <col width="25" customWidth="1" min="33" max="33"/>
-    <col width="24" customWidth="1" min="34" max="34"/>
-    <col width="22" customWidth="1" min="35" max="35"/>
-    <col width="23" customWidth="1" min="36" max="36"/>
+    <col width="21" customWidth="1" min="33" max="33"/>
+    <col width="22" customWidth="1" min="34" max="34"/>
+    <col width="21" customWidth="1" min="35" max="35"/>
+    <col width="20" customWidth="1" min="36" max="36"/>
     <col width="31" customWidth="1" min="37" max="37"/>
     <col width="30" customWidth="1" min="38" max="38"/>
     <col width="28" customWidth="1" min="39" max="39"/>
@@ -628,27 +613,27 @@
       </c>
       <c r="P1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_hpfr</t>
+          <t>iadu_no_r_hpfr</t>
         </is>
       </c>
       <c r="Q1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_hpfr_diff%</t>
+          <t>iadu_no_r_hpfr_diff%</t>
         </is>
       </c>
       <c r="R1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_rf_sum</t>
+          <t>iadu_no_r_rf_sum</t>
         </is>
       </c>
       <c r="S1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_pss_sum</t>
+          <t>iadu_no_r_pss_sum</t>
         </is>
       </c>
       <c r="T1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_psr_sum</t>
+          <t>iadu_no_r_psr_sum</t>
         </is>
       </c>
       <c r="U1" s="2" t="inlineStr">
@@ -713,22 +698,22 @@
       </c>
       <c r="AG1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_prep_time</t>
+          <t>iadu_no_r_prep_time</t>
         </is>
       </c>
       <c r="AH1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_sel_time</t>
+          <t>iadu_no_r_sel_time</t>
         </is>
       </c>
       <c r="AI1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_x_time</t>
+          <t>iadu_no_r_x_time</t>
         </is>
       </c>
       <c r="AJ1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_speedup</t>
+          <t>iadu_no_r_speedup</t>
         </is>
       </c>
       <c r="AK1" s="2" t="inlineStr">
@@ -754,16 +739,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
@@ -774,230 +759,974 @@
         <v>16</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9526.990125014934</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>3136</v>
-      </c>
-      <c r="I2" s="5" t="n">
-        <v>14518.63233438367</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>8127.642209368737</v>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>9108.871538915309</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <v>-0.043887794635346</v>
-      </c>
-      <c r="M2" s="8" t="n">
-        <v>2352</v>
-      </c>
-      <c r="N2" s="8" t="n">
-        <v>13273.12378418811</v>
-      </c>
-      <c r="O2" s="8" t="n">
-        <v>6516.252245272801</v>
-      </c>
-      <c r="P2" s="6" t="n">
-        <v>9888.379135724823</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>0.03793317784186558</v>
-      </c>
-      <c r="R2" s="8" t="n">
-        <v>3136</v>
-      </c>
-      <c r="S2" s="8" t="n">
-        <v>13841.23202217824</v>
-      </c>
-      <c r="T2" s="8" t="n">
-        <v>7088.852886453421</v>
-      </c>
-      <c r="U2" s="6" t="n">
-        <v>9094.888683961257</v>
-      </c>
-      <c r="V2" s="7" t="n">
-        <v>-0.0453555042446315</v>
-      </c>
-      <c r="W2" s="8" t="n">
-        <v>2234.4</v>
-      </c>
-      <c r="X2" s="8" t="n">
-        <v>12958.71840940004</v>
-      </c>
-      <c r="Y2" s="8" t="n">
-        <v>6098.229725438784</v>
-      </c>
-      <c r="Z2" s="9" t="n">
-        <v>1.624421358108521</v>
-      </c>
-      <c r="AA2" s="10" t="n">
-        <v>0.01973843574523926</v>
-      </c>
-      <c r="AB2" s="9" t="n">
-        <v>1.64415979385376</v>
-      </c>
-      <c r="AC2" s="11" t="n">
+        <v>2683.855405012207</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2791.613764176467</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>1547.75835916426</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1956.931003076849</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>-0.2708508068571048</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>1062</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>2508.095516203051</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>1613.164513126201</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>1325.184494791576</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>-0.5062384909720767</v>
+      </c>
+      <c r="R2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AD2" s="12" t="n">
-        <v>6.29425048828125e-05</v>
-      </c>
-      <c r="AE2" s="12" t="n">
-        <v>6.29425048828125e-05</v>
-      </c>
-      <c r="AF2" s="13" t="n">
-        <v>26121.61363636364</v>
-      </c>
-      <c r="AG2" s="14" t="n">
-        <v>0.001247882843017578</v>
-      </c>
-      <c r="AH2" s="12" t="n">
-        <v>9.942054748535156e-05</v>
-      </c>
-      <c r="AI2" s="14" t="n">
-        <v>0.00134730339050293</v>
-      </c>
-      <c r="AJ2" s="13" t="n">
-        <v>1220.333746239604</v>
-      </c>
-      <c r="AK2" s="14" t="n">
-        <v>0.001296281814575195</v>
-      </c>
-      <c r="AL2" s="12" t="n">
-        <v>4.601478576660156e-05</v>
-      </c>
-      <c r="AM2" s="14" t="n">
-        <v>0.001342296600341797</v>
-      </c>
-      <c r="AN2" s="13" t="n">
-        <v>1224.885612788632</v>
+      <c r="S2" s="3" t="n">
+        <v>2503.699806581671</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>1178.515311790095</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2397.268718372935</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>-0.1067817163711802</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1080</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>2443.302747177785</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>1126.03402880485</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.1023879051208496</v>
+      </c>
+      <c r="AA2" s="6" t="n">
+        <v>0.002756118774414062</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.1051440238952637</v>
+      </c>
+      <c r="AC2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8" t="n">
+        <v>2.598762512207031e-05</v>
+      </c>
+      <c r="AE2" s="8" t="n">
+        <v>2.598762512207031e-05</v>
+      </c>
+      <c r="AF2" s="9" t="n">
+        <v>4045.926605504587</v>
+      </c>
+      <c r="AG2" s="10" t="n">
+        <v>0.06653285026550293</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>0.002174854278564453</v>
+      </c>
+      <c r="AI2" s="10" t="n">
+        <v>0.06870770454406738</v>
+      </c>
+      <c r="AJ2" s="9" t="n">
+        <v>1.530309076587284</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>0.0003116130828857422</v>
+      </c>
+      <c r="AL2" s="8" t="n">
+        <v>5.245208740234375e-05</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>0.0003640651702880859</v>
+      </c>
+      <c r="AN2" s="9" t="n">
+        <v>288.8055009823183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>50</v>
+        <v>6.5</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>1*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
         <v>16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3693.931629271493</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>3136</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>13244.7827414617</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>12686.8511121902</v>
-      </c>
-      <c r="K3" s="6" t="n">
-        <v>3213.867203773236</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>-0.1299602899236482</v>
-      </c>
-      <c r="M3" s="8" t="n">
-        <v>2469.6</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>13017.32315207977</v>
-      </c>
-      <c r="O3" s="8" t="n">
-        <v>12273.05594830653</v>
-      </c>
-      <c r="P3" s="6" t="n">
-        <v>2799.526249271404</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>-0.2421282984537756</v>
-      </c>
-      <c r="R3" s="8" t="n">
-        <v>3136</v>
-      </c>
-      <c r="S3" s="8" t="n">
-        <v>13841.23202217824</v>
-      </c>
-      <c r="T3" s="8" t="n">
-        <v>14177.70577290684</v>
-      </c>
-      <c r="U3" s="6" t="n">
-        <v>2868.350310127353</v>
-      </c>
-      <c r="V3" s="7" t="n">
-        <v>-0.2234966431435979</v>
-      </c>
-      <c r="W3" s="8" t="n">
-        <v>2156</v>
-      </c>
-      <c r="X3" s="8" t="n">
-        <v>13094.15921194572</v>
-      </c>
-      <c r="Y3" s="8" t="n">
-        <v>12381.80890181836</v>
-      </c>
-      <c r="Z3" s="9" t="n">
-        <v>1.685943126678467</v>
-      </c>
-      <c r="AA3" s="10" t="n">
-        <v>0.01980113983154297</v>
-      </c>
-      <c r="AB3" s="9" t="n">
-        <v>1.70574426651001</v>
-      </c>
-      <c r="AC3" s="11" t="n">
+        <v>2254.600765786685</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>2763.738492686279</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>1949.137726899595</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1914.564497671727</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>-0.1508188382062894</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>1098</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>2519.92870143215</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>1703.364203760423</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1015.790630030548</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>-0.5494587576456741</v>
+      </c>
+      <c r="R3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AD3" s="12" t="n">
-        <v>7.033348083496094e-05</v>
-      </c>
-      <c r="AE3" s="12" t="n">
-        <v>7.033348083496094e-05</v>
-      </c>
-      <c r="AF3" s="13" t="n">
-        <v>24252.2372881356</v>
-      </c>
-      <c r="AG3" s="14" t="n">
-        <v>0.001267433166503906</v>
-      </c>
-      <c r="AH3" s="15" t="n">
-        <v>0.0001044273376464844</v>
-      </c>
-      <c r="AI3" s="14" t="n">
-        <v>0.001371860504150391</v>
-      </c>
-      <c r="AJ3" s="13" t="n">
-        <v>1243.380257212374</v>
-      </c>
-      <c r="AK3" s="14" t="n">
-        <v>0.001401662826538086</v>
-      </c>
-      <c r="AL3" s="12" t="n">
-        <v>6.079673767089844e-05</v>
-      </c>
-      <c r="AM3" s="14" t="n">
-        <v>0.001462459564208984</v>
-      </c>
-      <c r="AN3" s="13" t="n">
-        <v>1166.353113791979</v>
+      <c r="S3" s="3" t="n">
+        <v>2241.857485068551</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>1226.066855038004</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2031.537281690031</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>-0.09893702134835439</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>1062</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>2453.132589439577</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>1483.595307749546</v>
+      </c>
+      <c r="Z3" s="10" t="n">
+        <v>0.06979227066040039</v>
+      </c>
+      <c r="AA3" s="6" t="n">
+        <v>0.002831935882568359</v>
+      </c>
+      <c r="AB3" s="10" t="n">
+        <v>0.07262420654296875</v>
+      </c>
+      <c r="AC3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8" t="n">
+        <v>2.598762512207031e-05</v>
+      </c>
+      <c r="AE3" s="8" t="n">
+        <v>2.598762512207031e-05</v>
+      </c>
+      <c r="AF3" s="9" t="n">
+        <v>2794.568807339449</v>
+      </c>
+      <c r="AG3" s="10" t="n">
+        <v>0.06586670875549316</v>
+      </c>
+      <c r="AH3" s="6" t="n">
+        <v>0.002204418182373047</v>
+      </c>
+      <c r="AI3" s="10" t="n">
+        <v>0.06807112693786621</v>
+      </c>
+      <c r="AJ3" s="9" t="n">
+        <v>1.066887090164652</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>0.0003237724304199219</v>
+      </c>
+      <c r="AL3" s="8" t="n">
+        <v>4.506111145019531e-05</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>0.0003688335418701172</v>
+      </c>
+      <c r="AN3" s="9" t="n">
+        <v>196.9023917259211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>0.75*K/k</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2011.144394734481</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>2716.795861922046</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>2145.651467187565</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1786.042169308319</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.11192743097687</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>1170</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>2427.913874885691</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>1811.871705577372</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>837.6787532127858</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>-0.5834815464240303</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>2172.647709817956</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>1334.96895660517</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1853.913468479741</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>-0.07817982968622117</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1098</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>2450.247395321735</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1694.333926841994</v>
+      </c>
+      <c r="Z4" s="10" t="n">
+        <v>0.06679463386535645</v>
+      </c>
+      <c r="AA4" s="6" t="n">
+        <v>0.003302812576293945</v>
+      </c>
+      <c r="AB4" s="10" t="n">
+        <v>0.07009744644165039</v>
+      </c>
+      <c r="AC4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8" t="n">
+        <v>2.145767211914062e-05</v>
+      </c>
+      <c r="AE4" s="8" t="n">
+        <v>2.145767211914062e-05</v>
+      </c>
+      <c r="AF4" s="9" t="n">
+        <v>3266.777777777778</v>
+      </c>
+      <c r="AG4" s="10" t="n">
+        <v>0.06607508659362793</v>
+      </c>
+      <c r="AH4" s="6" t="n">
+        <v>0.002274274826049805</v>
+      </c>
+      <c r="AI4" s="10" t="n">
+        <v>0.06834936141967773</v>
+      </c>
+      <c r="AJ4" s="9" t="n">
+        <v>1.025575733052414</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>0.0002946853637695312</v>
+      </c>
+      <c r="AL4" s="8" t="n">
+        <v>4.076957702636719e-05</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>0.0003354549407958984</v>
+      </c>
+      <c r="AN4" s="9" t="n">
+        <v>208.9623312011372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>1*K/k</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1564.06404217594</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>1440</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2519.09841831437</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>2395.034376138431</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1229.694911854477</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2137822501540833</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>1152</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>2500.790452530767</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>2423.095540676291</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>430.8974918746878</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.7245013757395642</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>2008.885936925407</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>1577.98844505072</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1220.080511992323</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>-0.2199293129359743</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>1062</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>2475.200605717789</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>2317.120093725467</v>
+      </c>
+      <c r="Z5" s="10" t="n">
+        <v>0.06822061538696289</v>
+      </c>
+      <c r="AA5" s="6" t="n">
+        <v>0.002759695053100586</v>
+      </c>
+      <c r="AB5" s="10" t="n">
+        <v>0.07098031044006348</v>
+      </c>
+      <c r="AC5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8" t="n">
+        <v>2.455711364746094e-05</v>
+      </c>
+      <c r="AE5" s="8" t="n">
+        <v>2.455711364746094e-05</v>
+      </c>
+      <c r="AF5" s="9" t="n">
+        <v>2890.417475728155</v>
+      </c>
+      <c r="AG5" s="10" t="n">
+        <v>0.06743931770324707</v>
+      </c>
+      <c r="AH5" s="6" t="n">
+        <v>0.002290010452270508</v>
+      </c>
+      <c r="AI5" s="10" t="n">
+        <v>0.06972932815551758</v>
+      </c>
+      <c r="AJ5" s="9" t="n">
+        <v>1.01794054693537</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>0.0003468990325927734</v>
+      </c>
+      <c r="AL5" s="8" t="n">
+        <v>5.555152893066406e-05</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>0.0004024505615234375</v>
+      </c>
+      <c r="AN5" s="9" t="n">
+        <v>176.3702606635071</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>0.5*K/k</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>6887.639900592982</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>3840</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>7110.983875475043</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>4063.34397488206</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>6120.298840771586</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>-0.1114084172366986</v>
+      </c>
+      <c r="M6" s="12" t="n">
+        <v>3120</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>6350.070024348472</v>
+      </c>
+      <c r="O6" s="12" t="n">
+        <v>3349.771183576887</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>3337.614741116712</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>-0.5154196808649412</v>
+      </c>
+      <c r="R6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12" t="n">
+        <v>6293.858583593177</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>2956.243842476465</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>6259.970037871031</v>
+      </c>
+      <c r="V6" s="14" t="n">
+        <v>-0.0911298894513797</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>2928</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>6190.24387793756</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>2858.273840066528</v>
+      </c>
+      <c r="Z6" s="13" t="n">
+        <v>0.4824497699737549</v>
+      </c>
+      <c r="AA6" s="15" t="n">
+        <v>0.009267330169677734</v>
+      </c>
+      <c r="AB6" s="13" t="n">
+        <v>0.4917171001434326</v>
+      </c>
+      <c r="AC6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17" t="n">
+        <v>4.076957702636719e-05</v>
+      </c>
+      <c r="AE6" s="17" t="n">
+        <v>4.076957702636719e-05</v>
+      </c>
+      <c r="AF6" s="18" t="n">
+        <v>12060.88304093567</v>
+      </c>
+      <c r="AG6" s="13" t="n">
+        <v>0.4417641162872314</v>
+      </c>
+      <c r="AH6" s="15" t="n">
+        <v>0.007558345794677734</v>
+      </c>
+      <c r="AI6" s="13" t="n">
+        <v>0.4493224620819092</v>
+      </c>
+      <c r="AJ6" s="18" t="n">
+        <v>1.094352367484791</v>
+      </c>
+      <c r="AK6" s="19" t="n">
+        <v>0.0006835460662841797</v>
+      </c>
+      <c r="AL6" s="17" t="n">
+        <v>4.506111145019531e-05</v>
+      </c>
+      <c r="AM6" s="19" t="n">
+        <v>0.000728607177734375</v>
+      </c>
+      <c r="AN6" s="18" t="n">
+        <v>674.8727094240837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>0.65*K/k</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>5901.680221095799</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>3840</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>6944.942747265309</v>
+      </c>
+      <c r="J7" s="12" t="n">
+        <v>4883.262526169509</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>5139.727482222099</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>-0.1291077642855113</v>
+      </c>
+      <c r="M7" s="12" t="n">
+        <v>2832</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>6182.628251580246</v>
+      </c>
+      <c r="O7" s="12" t="n">
+        <v>3874.900769358145</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>2571.468627369269</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>-0.5642819449658678</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>5659.414333334539</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>3087.945705965269</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>5062.415217325763</v>
+      </c>
+      <c r="V7" s="14" t="n">
+        <v>-0.1422078073240989</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <v>2592</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>6180.40769059252</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>3709.992473266759</v>
+      </c>
+      <c r="Z7" s="13" t="n">
+        <v>0.4346108436584473</v>
+      </c>
+      <c r="AA7" s="20" t="n">
+        <v>0.01005816459655762</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>0.4446690082550049</v>
+      </c>
+      <c r="AC7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17" t="n">
+        <v>4.744529724121094e-05</v>
+      </c>
+      <c r="AE7" s="17" t="n">
+        <v>4.744529724121094e-05</v>
+      </c>
+      <c r="AF7" s="18" t="n">
+        <v>9372.246231155779</v>
+      </c>
+      <c r="AG7" s="13" t="n">
+        <v>0.4404771327972412</v>
+      </c>
+      <c r="AH7" s="15" t="n">
+        <v>0.008150577545166016</v>
+      </c>
+      <c r="AI7" s="13" t="n">
+        <v>0.4486277103424072</v>
+      </c>
+      <c r="AJ7" s="18" t="n">
+        <v>0.991175975098861</v>
+      </c>
+      <c r="AK7" s="19" t="n">
+        <v>0.0007588863372802734</v>
+      </c>
+      <c r="AL7" s="17" t="n">
+        <v>4.410743713378906e-05</v>
+      </c>
+      <c r="AM7" s="19" t="n">
+        <v>0.0008029937744140625</v>
+      </c>
+      <c r="AN7" s="18" t="n">
+        <v>553.7639548693587</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>0.75*K/k</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>5294.45532466534</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>3840</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>6831.366042960996</v>
+      </c>
+      <c r="J8" s="12" t="n">
+        <v>5376.910718295656</v>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>5239.025042550122</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>-0.01046949661790215</v>
+      </c>
+      <c r="M8" s="12" t="n">
+        <v>3360</v>
+      </c>
+      <c r="N8" s="12" t="n">
+        <v>6061.866973128549</v>
+      </c>
+      <c r="O8" s="12" t="n">
+        <v>4182.841930578428</v>
+      </c>
+      <c r="P8" s="13" t="n">
+        <v>2136.012197273381</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>-0.5965567624449833</v>
+      </c>
+      <c r="R8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12" t="n">
+        <v>5298.896042716911</v>
+      </c>
+      <c r="T8" s="12" t="n">
+        <v>3162.883845443531</v>
+      </c>
+      <c r="U8" s="13" t="n">
+        <v>4867.577847686005</v>
+      </c>
+      <c r="V8" s="14" t="n">
+        <v>-0.08062726962500476</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>2928</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>6130.530176560676</v>
+      </c>
+      <c r="Y8" s="12" t="n">
+        <v>4190.952328874673</v>
+      </c>
+      <c r="Z8" s="13" t="n">
+        <v>0.4406955242156982</v>
+      </c>
+      <c r="AA8" s="20" t="n">
+        <v>0.01020336151123047</v>
+      </c>
+      <c r="AB8" s="13" t="n">
+        <v>0.4508988857269287</v>
+      </c>
+      <c r="AC8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17" t="n">
+        <v>6.389617919921875e-05</v>
+      </c>
+      <c r="AE8" s="17" t="n">
+        <v>6.389617919921875e-05</v>
+      </c>
+      <c r="AF8" s="18" t="n">
+        <v>7056.742537313433</v>
+      </c>
+      <c r="AG8" s="13" t="n">
+        <v>0.4361526966094971</v>
+      </c>
+      <c r="AH8" s="15" t="n">
+        <v>0.007368087768554688</v>
+      </c>
+      <c r="AI8" s="13" t="n">
+        <v>0.4435207843780518</v>
+      </c>
+      <c r="AJ8" s="18" t="n">
+        <v>1.016635300100362</v>
+      </c>
+      <c r="AK8" s="19" t="n">
+        <v>0.0007333755493164062</v>
+      </c>
+      <c r="AL8" s="17" t="n">
+        <v>4.458427429199219e-05</v>
+      </c>
+      <c r="AM8" s="19" t="n">
+        <v>0.0007779598236083984</v>
+      </c>
+      <c r="AN8" s="18" t="n">
+        <v>579.5914802329145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>1*K/k</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>4138.482873049483</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>3840</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>6367.954184696478</v>
+      </c>
+      <c r="J9" s="12" t="n">
+        <v>6069.471311646996</v>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>3082.771263324329</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>-0.2550962857911363</v>
+      </c>
+      <c r="M9" s="12" t="n">
+        <v>2976</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>6225.733188234094</v>
+      </c>
+      <c r="O9" s="12" t="n">
+        <v>6118.961924909763</v>
+      </c>
+      <c r="P9" s="13" t="n">
+        <v>1122.060236684209</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>-0.7288716007522321</v>
+      </c>
+      <c r="R9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12" t="n">
+        <v>5060.185437556001</v>
+      </c>
+      <c r="T9" s="12" t="n">
+        <v>3938.125200871793</v>
+      </c>
+      <c r="U9" s="13" t="n">
+        <v>3210.377170312995</v>
+      </c>
+      <c r="V9" s="14" t="n">
+        <v>-0.2242623036524987</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <v>2640</v>
+      </c>
+      <c r="X9" s="12" t="n">
+        <v>6085.932127409373</v>
+      </c>
+      <c r="Y9" s="12" t="n">
+        <v>5515.554957096379</v>
+      </c>
+      <c r="Z9" s="13" t="n">
+        <v>0.4367592334747314</v>
+      </c>
+      <c r="AA9" s="15" t="n">
+        <v>0.009218215942382812</v>
+      </c>
+      <c r="AB9" s="13" t="n">
+        <v>0.4459774494171143</v>
+      </c>
+      <c r="AC9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17" t="n">
+        <v>4.339218139648438e-05</v>
+      </c>
+      <c r="AE9" s="17" t="n">
+        <v>4.339218139648438e-05</v>
+      </c>
+      <c r="AF9" s="18" t="n">
+        <v>10277.82967032967</v>
+      </c>
+      <c r="AG9" s="13" t="n">
+        <v>0.4395275115966797</v>
+      </c>
+      <c r="AH9" s="15" t="n">
+        <v>0.007361173629760742</v>
+      </c>
+      <c r="AI9" s="13" t="n">
+        <v>0.4468886852264404</v>
+      </c>
+      <c r="AJ9" s="18" t="n">
+        <v>0.9979609333611469</v>
+      </c>
+      <c r="AK9" s="19" t="n">
+        <v>0.0007147789001464844</v>
+      </c>
+      <c r="AL9" s="17" t="n">
+        <v>4.291534423828125e-05</v>
+      </c>
+      <c r="AM9" s="19" t="n">
+        <v>0.0007576942443847656</v>
+      </c>
+      <c r="AN9" s="18" t="n">
+        <v>588.5981749528005</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1029,10 +1758,10 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="28" customWidth="1" min="7" max="7"/>
-    <col width="26" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
     <col width="32" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="23" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
     <col width="29" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -1074,7 +1803,7 @@
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_hpfr_diff%</t>
+          <t>iadu_no_r_hpfr_diff%</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
@@ -1089,7 +1818,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>grid_weighted_speedup</t>
+          <t>iadu_no_r_speedup</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -1100,16 +1829,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
@@ -1119,63 +1848,303 @@
       <c r="F2" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="n">
-        <v>-0.043887794635346</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>0.03793317784186558</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>-0.0453555042446315</v>
-      </c>
-      <c r="J2" s="13" t="n">
-        <v>26121.61363636364</v>
-      </c>
-      <c r="K2" s="13" t="n">
-        <v>1220.333746239604</v>
-      </c>
-      <c r="L2" s="13" t="n">
-        <v>1224.885612788632</v>
+      <c r="G2" s="5" t="n">
+        <v>-0.2708508068571048</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>-0.5062384909720767</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>-0.1067817163711802</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>4045.926605504587</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>1.530309076587284</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>288.8055009823183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>20</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>50</v>
+        <v>6.5</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>1*K/k</t>
+          <t>0.65*K/k</t>
         </is>
       </c>
       <c r="F3" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <v>-0.1299602899236482</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>-0.2421282984537756</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>-0.2234966431435979</v>
-      </c>
-      <c r="J3" s="13" t="n">
-        <v>24252.2372881356</v>
-      </c>
-      <c r="K3" s="13" t="n">
-        <v>1243.380257212374</v>
-      </c>
-      <c r="L3" s="13" t="n">
-        <v>1166.353113791979</v>
+      <c r="G3" s="5" t="n">
+        <v>-0.1508188382062894</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>-0.5494587576456741</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>-0.09893702134835439</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>2794.568807339449</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>1.066887090164652</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>196.9023917259211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>0.75*K/k</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.11192743097687</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5834815464240303</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.07817982968622117</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>3266.777777777778</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>1.025575733052414</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>208.9623312011372</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>1*K/k</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2137822501540833</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7245013757395642</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2199293129359743</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>2890.417475728155</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1.01794054693537</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>176.3702606635071</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>0.5*K/k</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>-0.1114084172366986</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>-0.5154196808649412</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>-0.0911298894513797</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <v>12060.88304093567</v>
+      </c>
+      <c r="K6" s="18" t="n">
+        <v>1.094352367484791</v>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>674.8727094240837</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="D7" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>0.65*K/k</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="n">
+        <v>-0.1291077642855113</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>-0.5642819449658678</v>
+      </c>
+      <c r="I7" s="14" t="n">
+        <v>-0.1422078073240989</v>
+      </c>
+      <c r="J7" s="18" t="n">
+        <v>9372.246231155779</v>
+      </c>
+      <c r="K7" s="18" t="n">
+        <v>0.991175975098861</v>
+      </c>
+      <c r="L7" s="18" t="n">
+        <v>553.7639548693587</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D8" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>0.75*K/k</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" s="14" t="n">
+        <v>-0.01046949661790215</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>-0.5965567624449833</v>
+      </c>
+      <c r="I8" s="14" t="n">
+        <v>-0.08062726962500476</v>
+      </c>
+      <c r="J8" s="18" t="n">
+        <v>7056.742537313433</v>
+      </c>
+      <c r="K8" s="18" t="n">
+        <v>1.016635300100362</v>
+      </c>
+      <c r="L8" s="18" t="n">
+        <v>579.5914802329145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n">
+        <v>500</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>1*K/k</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14" t="n">
+        <v>-0.2550962857911363</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>-0.7288716007522321</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>-0.2242623036524987</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <v>10277.82967032967</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>0.9979609333611469</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>588.5981749528005</v>
       </c>
     </row>
   </sheetData>
